--- a/TestCases/TestCases.xlsx
+++ b/TestCases/TestCases.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="59">
   <si>
     <t xml:space="preserve">TCID</t>
   </si>
@@ -152,6 +152,51 @@
   </si>
   <si>
     <t xml:space="preserve">quit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FOR MULTIPLE KEYWORDS JUST REPEAT THE SAME SEQUENCE WITH DIFFERENT DATA AND CHANGE THE PREVIOUS QUIT RUNMODE TO NO AND NAVIGATION STEP BELOW TO YES AND SO ON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CreateLead13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CreateLead14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CreateLead15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">peer to peer lending</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CreateLead16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CreateLead17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CreateLead18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CreateLead19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">peer to peer lending companies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CreateLead20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CreateLead21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CreateLead22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CreateLead23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEXT KEYWORD SEARCH</t>
   </si>
 </sst>
 </file>
@@ -161,7 +206,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -185,12 +230,27 @@
       <family val="0"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <u val="single"/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -234,11 +294,11 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -247,12 +307,24 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -273,20 +345,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+      <selection pane="topLeft" activeCell="B32" activeCellId="0" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.8178137651822"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.3481781376518"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.7813765182186"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="47.2388663967611"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="30.2064777327935"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.7773279352227"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.2064777327935"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="47.9878542510121"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="30.6356275303644"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.2267206477733"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -342,10 +415,10 @@
       <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -359,13 +432,13 @@
       <c r="C4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="2" t="n">
+      <c r="D4" s="3" t="n">
         <v>2000</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -373,19 +446,19 @@
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -399,13 +472,13 @@
       <c r="C6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="2" t="n">
-        <v>4000</v>
+      <c r="D6" s="3" t="n">
+        <v>1500</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -413,16 +486,16 @@
       <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="D7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -439,7 +512,7 @@
       <c r="C8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="2" t="n">
+      <c r="D8" s="3" t="n">
         <v>2000</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -453,19 +526,19 @@
       <c r="A9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -479,7 +552,7 @@
       <c r="C10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="2" t="n">
+      <c r="D10" s="3" t="n">
         <v>2000</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -493,19 +566,19 @@
       <c r="A11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="0" t="s">
+      <c r="F11" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -519,7 +592,7 @@
       <c r="C12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="2" t="n">
+      <c r="D12" s="3" t="n">
         <v>2000</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -533,7 +606,7 @@
       <c r="A13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C13" s="0" t="s">
@@ -545,12 +618,245 @@
       <c r="E13" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="0" t="s">
+      <c r="F13" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="14" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="3" t="n">
+        <v>1500</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="14:14"/>
+    <mergeCell ref="26:26"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
